--- a/static/templates_base_interna/4 AUDITORIA AGIL/7 Priorización.xlsx
+++ b/static/templates_base_interna/4 AUDITORIA AGIL/7 Priorización.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\2 ARCHIVOS AUDITORIA INTERNA\4 AUDITORIA AGIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\4 AUDITORIA AGIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D463C1-41BD-47AF-87AF-15FD92D4D8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPRESA PRIVADA " sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="203">
   <si>
     <t xml:space="preserve">                           Entidad XXXXXXX</t>
   </si>
@@ -710,13 +711,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                       Entidad XXXXXXX</t>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Procesos</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Priorización de la Auditoría</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,16 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -982,6 +983,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,7 +1024,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1078,7 +1091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1164,7 +1183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1225,7 +1250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1286,7 +1317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1352,7 +1389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1413,7 +1456,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1474,7 +1523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1540,7 +1595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1601,7 +1662,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1662,7 +1729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1973,11 +2046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,11 +2129,11 @@
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="20" t="s">
@@ -2073,11 +2146,11 @@
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="22"/>
+      <c r="D9" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="20" t="s">
@@ -2090,11 +2163,11 @@
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22"/>
+      <c r="D10" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -2105,11 +2178,11 @@
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="19"/>
+      <c r="D11" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -2131,7 +2204,7 @@
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="19"/>
@@ -2141,52 +2214,52 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2204,279 +2277,279 @@
     </row>
     <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="28">
         <v>3</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="29">
         <v>45323</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="29">
         <v>45332</v>
       </c>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="28">
         <v>5</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="29">
         <v>45366</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="29">
         <v>45381</v>
       </c>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
         <v>4</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="29">
         <v>45392</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="29">
         <v>45402</v>
       </c>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="28">
         <v>6</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="29">
         <v>45417</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="29">
         <v>45427</v>
       </c>
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="28">
         <v>2</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="29">
         <v>45463</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="29">
         <v>45473</v>
       </c>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="28">
         <v>7</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="29">
         <v>45474</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="29">
         <v>45488</v>
       </c>
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="28">
         <v>3</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="29">
         <v>45514</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="29">
         <v>45524</v>
       </c>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="28">
         <v>8</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="29">
         <v>45540</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="29">
         <v>45550</v>
       </c>
       <c r="K26" s="19"/>
@@ -2551,7 +2624,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -2564,7 +2637,7 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="19"/>
@@ -2575,6 +2648,12 @@
       <c r="K33" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2582,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2961,7 +3040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3369,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
